--- a/TestInputs/DTFO/InputSheet.xlsx
+++ b/TestInputs/DTFO/InputSheet.xlsx
@@ -4,23 +4,31 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16380" windowHeight="3330" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="6" r:id="rId2"/>
     <sheet name="checkOut" sheetId="7" r:id="rId3"/>
     <sheet name="payment" sheetId="8" r:id="rId4"/>
-    <sheet name="categories" sheetId="9" r:id="rId5"/>
+    <sheet name="links" sheetId="9" r:id="rId5"/>
     <sheet name="shipmentValidation" sheetId="10" r:id="rId6"/>
     <sheet name="quantityValidation" sheetId="11" r:id="rId7"/>
+    <sheet name="SpecialSKU" sheetId="13" r:id="rId8"/>
+    <sheet name="Promotions" sheetId="12" r:id="rId9"/>
+    <sheet name="accountUpdate" sheetId="14" r:id="rId10"/>
+    <sheet name="wishList" sheetId="15" r:id="rId11"/>
+    <sheet name="prop65Test" sheetId="16" r:id="rId12"/>
+    <sheet name="emailUpdate" sheetId="17" r:id="rId13"/>
+    <sheet name="passwordUpdate" sheetId="18" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="252">
   <si>
     <t>TCID</t>
   </si>
@@ -37,374 +45,752 @@
     <t>TC01</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Object_Type</t>
+  </si>
+  <si>
+    <t>Locator_Type</t>
+  </si>
+  <si>
+    <t>Locator_Value</t>
+  </si>
+  <si>
+    <t>Test_Data</t>
+  </si>
+  <si>
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>startBrowser</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Enter Url</t>
+  </si>
+  <si>
+    <t>openApplication</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>loginFunc</t>
+  </si>
+  <si>
+    <t>Login with Customer</t>
+  </si>
+  <si>
+    <t>knacktestdata@gmail.com</t>
+  </si>
+  <si>
+    <t>12341234d*</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Wait for SignOut</t>
+  </si>
+  <si>
+    <t>signOut</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//a[@href='/logout']</t>
+  </si>
+  <si>
+    <t>Click on SignOut</t>
+  </si>
+  <si>
+    <t>Wait for SignIn</t>
+  </si>
+  <si>
+    <t>Customer Login with Invalid Details</t>
+  </si>
+  <si>
+    <t>knacktestdata@gmail.c</t>
+  </si>
+  <si>
+    <t>123414d*</t>
+  </si>
+  <si>
+    <t>checkOut</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>/html/body/main/header/nav/div/div[1]/div/div/div/div/ul/li[2]/a</t>
+  </si>
+  <si>
+    <t>Login with Employee Details</t>
+  </si>
+  <si>
+    <t>dileep.srungaram@knacksystems.com</t>
+  </si>
+  <si>
+    <t>Employee Login with Invalid Details</t>
+  </si>
+  <si>
+    <t>dileep.srungaram@knaystems.com</t>
+  </si>
+  <si>
+    <t>Wait for Forgot Password</t>
+  </si>
+  <si>
+    <t>//*[@id='loginForm']/div[3]/a</t>
+  </si>
+  <si>
+    <t>Click on Forgot Password</t>
+  </si>
+  <si>
+    <t>clickAction</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>forgottenPwd.email</t>
+  </si>
+  <si>
+    <t>Wait for Email</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>typeAction</t>
+  </si>
+  <si>
+    <t>Wait for RESET Button</t>
+  </si>
+  <si>
+    <t>//*[@id='forgottenPwdForm']/div[1]/button</t>
+  </si>
+  <si>
+    <t>Click on Reset Button</t>
+  </si>
+  <si>
+    <t>sleeptime</t>
+  </si>
+  <si>
+    <t>sleepTime</t>
+  </si>
+  <si>
+    <t>Close the Application</t>
+  </si>
+  <si>
+    <t>closeApplication</t>
+  </si>
+  <si>
+    <t>/html/body/main/header/nav/div/div[4]/div/div/div[3]/div/div/div/div/div/div/form/div/div/input</t>
+  </si>
+  <si>
+    <t>Wait for Search</t>
+  </si>
+  <si>
+    <t>HH20SCSS</t>
+  </si>
+  <si>
+    <t>//*[@id='addToCartFormHH20SCSS']/button</t>
+  </si>
+  <si>
+    <t>Click Add to Cart</t>
+  </si>
+  <si>
+    <t>/html/body/main/header/nav/div/div[4]/div/div/div[3]/div/div/div/div/div/div/form/div/div/span/button</t>
+  </si>
+  <si>
+    <t>Wait for Cart</t>
+  </si>
+  <si>
+    <t>//a[@href='/cart']</t>
+  </si>
+  <si>
+    <t>Click on Cart</t>
+  </si>
+  <si>
+    <t>//*[@id='cartpop']/a</t>
+  </si>
+  <si>
+    <t>Wait for Checkout</t>
+  </si>
+  <si>
+    <t>Click on Checkout</t>
+  </si>
+  <si>
+    <t>Click on Search</t>
+  </si>
+  <si>
+    <t>Wait for Icon</t>
+  </si>
+  <si>
+    <t>Search Product from Products</t>
+  </si>
+  <si>
+    <t>Search Product from Specials</t>
+  </si>
+  <si>
+    <t>Wait for Add to Cart</t>
+  </si>
+  <si>
+    <t>Wait for Proceed to Check Out</t>
+  </si>
+  <si>
+    <t>//button[@data-checkout-url='/cart/checkout']</t>
+  </si>
+  <si>
+    <t>Click on Check Out</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-default btn-block js-address-book']</t>
+  </si>
+  <si>
+    <t>Wait for Address</t>
+  </si>
+  <si>
+    <t>Click on Address</t>
+  </si>
+  <si>
+    <t>//*[@id='addressbook']/div/form/button</t>
+  </si>
+  <si>
+    <t>Wait for Select Address</t>
+  </si>
+  <si>
+    <t>Click on Select Address</t>
+  </si>
+  <si>
+    <t>//*[@id='delivery_method']</t>
+  </si>
+  <si>
+    <t>//*[@id='delivery_method']/option[1]</t>
+  </si>
+  <si>
+    <t>Wait for Choose Shipment</t>
+  </si>
+  <si>
+    <t>Wait for Shipment</t>
+  </si>
+  <si>
+    <t>Click on Shipment Dropdown</t>
+  </si>
+  <si>
+    <t>Select Shipment Method</t>
+  </si>
+  <si>
+    <t>deliveryMethodSubmit</t>
+  </si>
+  <si>
+    <t>Wait for Next</t>
+  </si>
+  <si>
+    <t>Click on Next</t>
+  </si>
+  <si>
+    <t>//button[@class='btn btn-primary btn-block submit_silentOrderPostForm checkout-next']</t>
+  </si>
+  <si>
+    <t>Wait for Billing Address</t>
+  </si>
+  <si>
+    <t>Click on Billing Address</t>
+  </si>
+  <si>
+    <t>Wait for Final Review</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div/div[1]/div[1]/div[2]/div/div[2]/div/label/input</t>
+  </si>
+  <si>
+    <t>Select Check Box</t>
+  </si>
+  <si>
+    <t>//*[@id='btnContinue']</t>
+  </si>
+  <si>
+    <t>Wait for Pay</t>
+  </si>
+  <si>
+    <t>Click on Pay &amp; Place Order</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div/div[1]/div[1]/div[2]/div/div[2]/div/label/a</t>
+  </si>
+  <si>
+    <t>Change Frame</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>paymentPage</t>
+  </si>
+  <si>
+    <t>Payment Processing</t>
+  </si>
+  <si>
+    <t>Close Application</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Links Functionality</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>addressValidation</t>
+  </si>
+  <si>
+    <t>Validate Address</t>
+  </si>
+  <si>
+    <t>shipmentValidation</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>quantityValidation</t>
+  </si>
+  <si>
+    <t>Wait for Quantity</t>
+  </si>
+  <si>
+    <t>Enter Invalid Quantity</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div[2]/div[1]/div/ul/table/tbody/tr/td/li[1]/div[5]/form/input[4]</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>Enter Valid Quantity</t>
+  </si>
+  <si>
+    <t>frameSwitch</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Close pop  up</t>
+  </si>
+  <si>
+    <t>//*[@id='cboxClose']/span</t>
+  </si>
+  <si>
+    <t>HSD16MIX</t>
+  </si>
+  <si>
+    <t>AC41RL3B</t>
+  </si>
+  <si>
+    <t>//*[@id='addToCartFormHSD16MIX']/button</t>
+  </si>
+  <si>
+    <t>//*[@id='addToCartFormAC41RL3B']/button</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Object_Type</t>
-  </si>
-  <si>
-    <t>Locator_Type</t>
-  </si>
-  <si>
-    <t>Locator_Value</t>
-  </si>
-  <si>
-    <t>Test_Data</t>
-  </si>
-  <si>
-    <t>Open Browser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>startBrowser</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Enter Url</t>
-  </si>
-  <si>
-    <t>openApplication</t>
-  </si>
-  <si>
-    <t>waitForElement</t>
-  </si>
-  <si>
-    <t>loginFunc</t>
-  </si>
-  <si>
-    <t>Login with Customer</t>
-  </si>
-  <si>
-    <t>knacktestdata@gmail.com</t>
-  </si>
-  <si>
-    <t>12341234d*</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>Wait for SignOut</t>
-  </si>
-  <si>
-    <t>signOut</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//a[@href='/logout']</t>
-  </si>
-  <si>
-    <t>Click on SignOut</t>
-  </si>
-  <si>
-    <t>Wait for SignIn</t>
-  </si>
-  <si>
-    <t>Customer Login with Invalid Details</t>
-  </si>
-  <si>
-    <t>knacktestdata@gmail.c</t>
-  </si>
-  <si>
-    <t>123414d*</t>
-  </si>
-  <si>
-    <t>checkOut</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>/html/body/main/header/nav/div/div[1]/div/div/div/div/ul/li[2]/a</t>
-  </si>
-  <si>
-    <t>Login with Employee Details</t>
-  </si>
-  <si>
-    <t>dileep.srungaram@knacksystems.com</t>
-  </si>
-  <si>
-    <t>Employee Login with Invalid Details</t>
-  </si>
-  <si>
-    <t>dileep.srungaram@knaystems.com</t>
-  </si>
-  <si>
-    <t>Wait for Forgot Password</t>
-  </si>
-  <si>
-    <t>//*[@id='loginForm']/div[3]/a</t>
-  </si>
-  <si>
-    <t>Click on Forgot Password</t>
-  </si>
-  <si>
-    <t>clickAction</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>forgottenPwd.email</t>
-  </si>
-  <si>
-    <t>Wait for Email</t>
-  </si>
-  <si>
-    <t>Enter Email</t>
-  </si>
-  <si>
-    <t>typeAction</t>
-  </si>
-  <si>
-    <t>Wait for RESET Button</t>
-  </si>
-  <si>
-    <t>//*[@id='forgottenPwdForm']/div[1]/button</t>
-  </si>
-  <si>
-    <t>Click on Reset Button</t>
-  </si>
-  <si>
-    <t>sleeptime</t>
-  </si>
-  <si>
-    <t>sleepTime</t>
-  </si>
-  <si>
-    <t>Close the Application</t>
-  </si>
-  <si>
-    <t>closeApplication</t>
-  </si>
-  <si>
-    <t>/html/body/main/header/nav/div/div[4]/div/div/div[3]/div/div/div/div/div/div/form/div/div/input</t>
-  </si>
-  <si>
-    <t>Wait for Search</t>
-  </si>
-  <si>
-    <t>HH20SCSS</t>
-  </si>
-  <si>
-    <t>//*[@id='addToCartFormHH20SCSS']/button</t>
-  </si>
-  <si>
-    <t>Click Add to Cart</t>
-  </si>
-  <si>
-    <t>/html/body/main/header/nav/div/div[4]/div/div/div[3]/div/div/div/div/div/div/form/div/div/span/button</t>
-  </si>
-  <si>
-    <t>Wait for Cart</t>
-  </si>
-  <si>
-    <t>//a[@href='/cart']</t>
-  </si>
-  <si>
-    <t>Click on Cart</t>
-  </si>
-  <si>
-    <t>//*[@id='cartpop']/a</t>
-  </si>
-  <si>
-    <t>Wait for Checkout</t>
-  </si>
-  <si>
-    <t>Click on Checkout</t>
-  </si>
-  <si>
-    <t>Click on Search</t>
-  </si>
-  <si>
-    <t>Wait for Icon</t>
-  </si>
-  <si>
-    <t>Search Product from Products</t>
-  </si>
-  <si>
-    <t>Search Product from Specials</t>
-  </si>
-  <si>
-    <t>Wait for Add to Cart</t>
-  </si>
-  <si>
-    <t>AP31064A</t>
-  </si>
-  <si>
-    <t>//*[@id='addToCartFormAP31064A']/button</t>
-  </si>
-  <si>
-    <t>Wait for Proceed to Check Out</t>
-  </si>
-  <si>
-    <t>//button[@data-checkout-url='/cart/checkout']</t>
-  </si>
-  <si>
-    <t>Click on Check Out</t>
-  </si>
-  <si>
-    <t>//button[@class='btn btn-default btn-block js-address-book']</t>
-  </si>
-  <si>
-    <t>Wait for Address</t>
-  </si>
-  <si>
-    <t>Click on Address</t>
-  </si>
-  <si>
-    <t>//*[@id='addressbook']/div/form/button</t>
-  </si>
-  <si>
-    <t>Wait for Select Address</t>
-  </si>
-  <si>
-    <t>Click on Select Address</t>
-  </si>
-  <si>
-    <t>//*[@id='delivery_method']</t>
-  </si>
-  <si>
-    <t>//*[@id='delivery_method']/option[1]</t>
-  </si>
-  <si>
-    <t>Wait for Choose Shipment</t>
-  </si>
-  <si>
-    <t>Wait for Shipment</t>
-  </si>
-  <si>
-    <t>Click on Shipment Dropdown</t>
-  </si>
-  <si>
-    <t>Select Shipment Method</t>
-  </si>
-  <si>
-    <t>deliveryMethodSubmit</t>
-  </si>
-  <si>
-    <t>Wait for Next</t>
-  </si>
-  <si>
-    <t>Click on Next</t>
-  </si>
-  <si>
-    <t>//button[@class='btn btn-primary btn-block submit_silentOrderPostForm checkout-next']</t>
-  </si>
-  <si>
-    <t>Wait for Billing Address</t>
-  </si>
-  <si>
-    <t>Click on Billing Address</t>
-  </si>
-  <si>
-    <t>Wait for Final Review</t>
-  </si>
-  <si>
-    <t>/html/body/main/div[4]/section/div/div/div[1]/div[1]/div[2]/div/div[2]/div/label/input</t>
-  </si>
-  <si>
-    <t>Select Check Box</t>
-  </si>
-  <si>
-    <t>//*[@id='btnContinue']</t>
-  </si>
-  <si>
-    <t>Wait for Pay</t>
-  </si>
-  <si>
-    <t>Click on Pay &amp; Place Order</t>
-  </si>
-  <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>/html/body/main/div[4]/section/div/div/div[1]/div[1]/div[2]/div/div[2]/div/label/a</t>
-  </si>
-  <si>
-    <t>Change Frame</t>
-  </si>
-  <si>
-    <t>frameChange</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>paymentPage</t>
-  </si>
-  <si>
-    <t>Payment Processing</t>
-  </si>
-  <si>
-    <t>6000</t>
-  </si>
-  <si>
-    <t>Close Application</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Links Functionality</t>
-  </si>
-  <si>
-    <t>links</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>addressValidation</t>
-  </si>
-  <si>
-    <t>Validate Address</t>
-  </si>
-  <si>
-    <t>shipmentValidation</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>quantityValidation</t>
-  </si>
-  <si>
-    <t>Wait for Quantity</t>
-  </si>
-  <si>
-    <t>Enter Invalid Quantity</t>
-  </si>
-  <si>
-    <t>/html/body/main/div[4]/section/div/div[2]/div[1]/div/ul/table/tbody/tr/td/li[1]/div[5]/form/input[4]</t>
+    <t>sleep time</t>
+  </si>
+  <si>
+    <t>AP31084</t>
+  </si>
+  <si>
+    <t>//*[@id='addToCartFormAP31084']/button</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div[2]/div[4]/div/div[2]/div/div[1]/div[3]</t>
+  </si>
+  <si>
+    <t>Focus Out</t>
+  </si>
+  <si>
+    <t>Click quantity Textbox</t>
+  </si>
+  <si>
+    <t>//*[@id="quantity_0"]</t>
+  </si>
+  <si>
+    <t>Clear text</t>
+  </si>
+  <si>
+    <t>keyActions</t>
+  </si>
+  <si>
+    <t>select All</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div[2]/div[5]/div/div/div[1]/button</t>
+  </si>
+  <si>
+    <t>SpecialSKU</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>Login with Anonymus</t>
+  </si>
+  <si>
+    <t>Click on MyAccount</t>
+  </si>
+  <si>
+    <t>/html/body/main/header/nav/div/div[1]/div/div/div/div/ul/li[2]/div[1]</t>
+  </si>
+  <si>
+    <t>Click on Promotion Sub</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div/div[1]/ul/li/a[6]</t>
+  </si>
+  <si>
+    <t>Wait for Subscription</t>
+  </si>
+  <si>
+    <t>Click on Update</t>
+  </si>
+  <si>
+    <t>Login with Emp</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>Search for Specials</t>
+  </si>
+  <si>
+    <t>/html/body/main/header/nav/div/div[4]/div/div/div[2]/div/nav/div/ul[2]/li[2]/span/a</t>
+  </si>
+  <si>
+    <t>FT6003</t>
+  </si>
+  <si>
+    <t>//*[@id='addToCartFormFT6003']/button</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>accountUpdate</t>
+  </si>
+  <si>
+    <t>Wait for My Account</t>
+  </si>
+  <si>
+    <t>Click on My Account</t>
+  </si>
+  <si>
+    <t>Wait for Edit</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div/div[2]/div/div/div[1]/div/a/span</t>
+  </si>
+  <si>
+    <t>Click on Edit</t>
+  </si>
+  <si>
+    <t>Wait for Title</t>
+  </si>
+  <si>
+    <t>//*[@id='profile.title']</t>
+  </si>
+  <si>
+    <t>Select Title</t>
+  </si>
+  <si>
+    <t>selectFunc</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Wait for First Name</t>
+  </si>
+  <si>
+    <t>profile.firstName</t>
+  </si>
+  <si>
+    <t>Clear Text</t>
+  </si>
+  <si>
+    <t>clearText</t>
+  </si>
+  <si>
+    <t>Enter First Name</t>
+  </si>
+  <si>
+    <t>profile.lastName</t>
+  </si>
+  <si>
+    <t>Wait for update</t>
+  </si>
+  <si>
+    <t>//*[@id='updateProfileForm']/div[4]/div[1]/div/button</t>
+  </si>
+  <si>
+    <t>Wait for Last Name</t>
+  </si>
+  <si>
+    <t>Enter Last Name</t>
+  </si>
+  <si>
+    <t>//*[@id='promotionSubscriptionForm']/label</t>
+  </si>
+  <si>
+    <t>//*[@id='promotionSubscriptionForm']/div[1]/div[1]/div/button</t>
+  </si>
+  <si>
+    <t>Click on Promotion Subscription</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>wishList</t>
+  </si>
+  <si>
+    <t>R9652</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/div[1]/div/div[2]/div/div/div/ul/li[1]/div/div[2]/div/div[3]/div/div[2]/div/button/img</t>
+  </si>
+  <si>
+    <t>Add to wishlist</t>
+  </si>
+  <si>
+    <t>/html/body/main/header/nav/div/div[1]/div/div/div/div/ul/li[3]/div/a</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div[3]/div/div[2]/div/a[2]</t>
+  </si>
+  <si>
+    <t>Wait for MiniCart</t>
+  </si>
+  <si>
+    <t>//*[@id="minicart-open"]/span[2]/img</t>
+  </si>
+  <si>
+    <t>MiniCart</t>
+  </si>
+  <si>
+    <t>//*[@id="cartpop"]/a</t>
+  </si>
+  <si>
+    <t>Minicart Checkout</t>
+  </si>
+  <si>
+    <t>Wait for wishlist</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Click on Wishlist</t>
+  </si>
+  <si>
+    <t>Wait for cart</t>
+  </si>
+  <si>
+    <t>Add all tocart</t>
+  </si>
+  <si>
+    <t>wait for checkout in cart</t>
+  </si>
+  <si>
+    <t>Click on Checkout button in cart</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>prop65Test</t>
+  </si>
+  <si>
+    <t>login in Application</t>
+  </si>
+  <si>
+    <t>ZRRYAC160</t>
+  </si>
+  <si>
+    <t>Adding to cart</t>
+  </si>
+  <si>
+    <t>//*[@id='addToCartFormZRRYAC160']/button</t>
+  </si>
+  <si>
+    <t>//*[@id='addressbook']/div[2]/form/button</t>
+  </si>
+  <si>
+    <t>//*[@id='id01']/div/div[2]/button</t>
+  </si>
+  <si>
+    <t>Wait for Prop 65 Message</t>
+  </si>
+  <si>
+    <t>Click on close button</t>
+  </si>
+  <si>
+    <t>ande.sumanth@knacksystems.com</t>
+  </si>
+  <si>
+    <t>Knack</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Sumanth5@5@</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>emailUpdate</t>
+  </si>
+  <si>
+    <t>wait for myAccount</t>
+  </si>
+  <si>
+    <t>wait for Email Tab</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div/div[1]/ul/li/a[4]</t>
+  </si>
+  <si>
+    <t>Click on Email Tab</t>
+  </si>
+  <si>
+    <t>wait for Clear New Email Tab</t>
+  </si>
+  <si>
+    <t>clearing Text</t>
+  </si>
+  <si>
+    <t>wait for Clear</t>
+  </si>
+  <si>
+    <t>//*[@id='profile.email']</t>
+  </si>
+  <si>
+    <t>dileep.s70321@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter New Email Address</t>
+  </si>
+  <si>
+    <t>wait for Confirm New Email Address</t>
+  </si>
+  <si>
+    <t>Confirm New Email Tab</t>
+  </si>
+  <si>
+    <t>wait for Entering Password</t>
+  </si>
+  <si>
+    <t>Entering Password Tab</t>
+  </si>
+  <si>
+    <t>//*[@id='profile.pwd']</t>
+  </si>
+  <si>
+    <t>//*[@id='profile.checkEmail']</t>
+  </si>
+  <si>
+    <t>wait for update</t>
+  </si>
+  <si>
+    <t>//*[@id='updateEmailForm']/div[5]/div/div[1]/div/button</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>passwordUpdate</t>
+  </si>
+  <si>
+    <t>Wait for Password</t>
+  </si>
+  <si>
+    <t>click on Password Tab</t>
+  </si>
+  <si>
+    <t>/html/body/main/div[4]/section/div/div/div[1]/ul/li/a[5]</t>
+  </si>
+  <si>
+    <t>Enter Current Password</t>
+  </si>
+  <si>
+    <t>Wait for current password</t>
+  </si>
+  <si>
+    <t>currentPassword</t>
+  </si>
+  <si>
+    <t>Clear field</t>
+  </si>
+  <si>
+    <t>Password with Valid data</t>
+  </si>
+  <si>
+    <t>Wait for Update</t>
+  </si>
+  <si>
+    <t>//*[@id='updatePasswordForm']/div[4]/div[1]/div/button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Update </t>
+  </si>
+  <si>
+    <t>176&amp;Dir_</t>
+  </si>
+  <si>
+    <t>Dir$%#132[</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +844,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,6 +910,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,69 +1259,146 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -917,12 +1407,2723 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="11">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E29" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E33" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="E13" r:id="rId2"/>
+    <hyperlink ref="E15" r:id="rId3"/>
+    <hyperlink ref="E28" r:id="rId4"/>
+    <hyperlink ref="E30" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -938,19 +4139,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -958,50 +4159,50 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6">
         <v>30</v>
@@ -1009,33 +4210,33 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="6">
         <v>30</v>
@@ -1043,33 +4244,33 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6">
         <v>60</v>
@@ -1077,33 +4278,33 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="6">
         <v>60</v>
@@ -1111,33 +4312,33 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6">
         <v>60</v>
@@ -1145,33 +4346,33 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E14" s="6">
         <v>30</v>
@@ -1179,33 +4380,33 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="6">
         <v>60</v>
@@ -1213,33 +4414,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6">
         <v>60</v>
@@ -1247,33 +4448,33 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6">
         <v>30</v>
@@ -1281,33 +4482,33 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="6">
         <v>30</v>
@@ -1315,33 +4516,33 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E24" s="6">
         <v>30</v>
@@ -1349,33 +4550,33 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="6">
         <v>4000</v>
@@ -1383,19 +4584,53 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +4650,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,19 +4668,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1453,50 +4688,50 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6">
         <v>30</v>
@@ -1504,33 +4739,33 @@
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6">
         <v>30</v>
@@ -1538,101 +4773,101 @@
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="6">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="E9" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="6">
-        <v>30</v>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E12" s="6">
         <v>30</v>
@@ -1640,101 +4875,101 @@
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="6">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="6">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E18" s="6">
         <v>30</v>
@@ -1742,33 +4977,33 @@
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="E20" s="6">
         <v>30</v>
@@ -1776,53 +5011,172 @@
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>129</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="6">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="E23" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1836,10 +5190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,19 +5207,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1873,16 +5227,16 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E2" s="11">
         <v>30</v>
@@ -1890,33 +5244,33 @@
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E4" s="11">
         <v>30</v>
@@ -1924,33 +5278,33 @@
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6" s="11">
         <v>30</v>
@@ -1958,33 +5312,33 @@
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="11">
         <v>30</v>
@@ -1992,33 +5346,33 @@
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E10" s="11">
         <v>30</v>
@@ -2026,33 +5380,33 @@
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="11">
         <v>7000</v>
@@ -2060,16 +5414,16 @@
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13" s="11">
         <v>30</v>
@@ -2077,33 +5431,33 @@
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="11">
         <v>5000</v>
@@ -2111,16 +5465,16 @@
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E16" s="11">
         <v>30</v>
@@ -2131,152 +5485,203 @@
         <v>100</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="11">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="E19" s="11">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="11">
-        <v>5000</v>
+        <v>97</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="11">
+        <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2287,10 +5692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A6" sqref="A6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,19 +5709,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2324,87 +5729,104 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2415,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,19 +5854,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2452,50 +5874,50 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6">
         <v>30</v>
@@ -2503,33 +5925,33 @@
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6">
         <v>30</v>
@@ -2537,33 +5959,33 @@
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="6">
         <v>30</v>
@@ -2571,33 +5993,33 @@
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6">
         <v>30</v>
@@ -2605,33 +6027,33 @@
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6">
         <v>30</v>
@@ -2639,33 +6061,33 @@
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6">
         <v>30</v>
@@ -2673,33 +6095,33 @@
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E16" s="6">
         <v>30</v>
@@ -2707,33 +6129,33 @@
     </row>
     <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" s="6">
         <v>30</v>
@@ -2741,33 +6163,33 @@
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="6">
         <v>30</v>
@@ -2775,33 +6197,33 @@
     </row>
     <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E22" s="6">
         <v>30</v>
@@ -2809,36 +6231,70 @@
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2851,10 +6307,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,24 +6320,23 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.5703125" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -2889,50 +6344,50 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6">
         <v>30</v>
@@ -2940,33 +6395,33 @@
     </row>
     <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="6">
         <v>30</v>
@@ -2974,33 +6429,33 @@
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="6">
         <v>30</v>
@@ -3008,33 +6463,33 @@
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6">
         <v>30</v>
@@ -3042,33 +6497,33 @@
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E12" s="6">
         <v>30</v>
@@ -3076,33 +6531,33 @@
     </row>
     <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="6">
         <v>30</v>
@@ -3110,53 +6565,376 @@
     </row>
     <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3165,4 +6943,861 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D20" r:id="rId2"/>
+    <hyperlink ref="E20" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>